--- a/public/docs/15668.xlsx
+++ b/public/docs/15668.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bakasa\code\lab\public\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2A119E-24E5-4407-A104-95B584C41ADE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D10FAA-B1D6-4036-B2CD-4027E0189A57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{237CE995-705C-4B47-82B6-2982EF6EC336}"/>
   </bookViews>
@@ -454,11 +454,12 @@
   <dimension ref="A2:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
